--- a/A2-cuda/heatmap/graph data.xlsx
+++ b/A2-cuda/heatmap/graph data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>n</t>
   </si>
@@ -48,16 +48,25 @@
     <t>Figure 6</t>
   </si>
   <si>
-    <t>Figure 7</t>
-  </si>
-  <si>
     <t>Host computation</t>
   </si>
   <si>
-    <t>Multithreaded host compuation</t>
+    <t>#threads</t>
   </si>
   <si>
-    <t>#threads</t>
+    <t>Figure 8</t>
+  </si>
+  <si>
+    <t>Figure 10</t>
+  </si>
+  <si>
+    <t>existing data reused</t>
+  </si>
+  <si>
+    <t>Figure 12</t>
+  </si>
+  <si>
+    <t>Figure 11</t>
   </si>
 </sst>
 </file>
@@ -890,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W488"/>
+  <dimension ref="A1:AE488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -899,12 +908,12 @@
     <col min="1" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:31" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -915,16 +924,22 @@
         <v>8</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -974,13 +989,28 @@
         <v>0</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>256</v>
       </c>
@@ -1035,8 +1065,20 @@
       <c r="W5" s="1">
         <v>9.6125600000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB5" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>256</v>
       </c>
@@ -1091,8 +1133,20 @@
       <c r="W6" s="1">
         <v>9.6867629999999991</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB6" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>256</v>
       </c>
@@ -1147,8 +1201,20 @@
       <c r="W7" s="1">
         <v>9.7092120000000008</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB7" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>256</v>
       </c>
@@ -1203,8 +1269,20 @@
       <c r="W8" s="1">
         <v>9.7758979999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB8" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>256</v>
       </c>
@@ -1253,8 +1331,20 @@
       <c r="W9" s="1">
         <v>9.8761799999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB9" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>256</v>
       </c>
@@ -1303,8 +1393,20 @@
       <c r="W10" s="1">
         <v>9.8801500000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB10" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>256</v>
       </c>
@@ -1353,8 +1455,20 @@
       <c r="W11" s="1">
         <v>9.9082100000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB11" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>256</v>
       </c>
@@ -1403,8 +1517,20 @@
       <c r="W12" s="1">
         <v>9.9346829999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB12" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>256</v>
       </c>
@@ -1453,8 +1579,20 @@
       <c r="W13" s="1">
         <v>9.9277820000000006</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB13" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>256</v>
       </c>
@@ -1503,8 +1641,20 @@
       <c r="W14" s="1">
         <v>9.8943890000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB14" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>256</v>
       </c>
@@ -1553,8 +1703,20 @@
       <c r="W15" s="1">
         <v>9.9278820000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB15" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>256</v>
       </c>
@@ -1603,8 +1765,20 @@
       <c r="W16" s="1">
         <v>9.9878450000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB16" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>256</v>
       </c>
@@ -1653,8 +1827,20 @@
       <c r="W17" s="1">
         <v>9.9818379999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB17" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>256</v>
       </c>
@@ -1703,8 +1889,20 @@
       <c r="W18" s="1">
         <v>10.012619000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB18" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>256</v>
       </c>
@@ -1753,8 +1951,20 @@
       <c r="W19" s="1">
         <v>10.043049999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB19" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>256</v>
       </c>
@@ -1803,8 +2013,20 @@
       <c r="W20" s="1">
         <v>10.033047</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB20" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>256</v>
       </c>
@@ -1853,8 +2075,20 @@
       <c r="W21" s="1">
         <v>9.9205590000000008</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB21" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>256</v>
       </c>
@@ -1903,8 +2137,20 @@
       <c r="W22" s="1">
         <v>10.042624999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB22" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>256</v>
       </c>
@@ -1953,8 +2199,20 @@
       <c r="W23" s="1">
         <v>10.013726999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB23" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>256</v>
       </c>
@@ -2003,8 +2261,20 @@
       <c r="W24" s="1">
         <v>10.061809999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB24" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>256</v>
       </c>
@@ -2053,8 +2323,20 @@
       <c r="W25" s="1">
         <v>10.088397000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB25" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>256</v>
       </c>
@@ -2103,8 +2385,20 @@
       <c r="W26" s="1">
         <v>10.078528</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB26" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>256</v>
       </c>
@@ -2153,8 +2447,20 @@
       <c r="W27" s="1">
         <v>10.100362000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB27" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>256</v>
       </c>
@@ -2203,8 +2509,20 @@
       <c r="W28" s="1">
         <v>10.122426000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB28" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>256</v>
       </c>
@@ -2226,8 +2544,20 @@
       <c r="W29" s="1">
         <v>10.062334</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB29" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>256</v>
       </c>
@@ -2249,8 +2579,20 @@
       <c r="W30" s="1">
         <v>9.5991839999999993</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB30" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>256</v>
       </c>
@@ -2272,8 +2614,20 @@
       <c r="W31" s="1">
         <v>9.2160980000000006</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB31" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>256</v>
       </c>
@@ -2295,8 +2649,20 @@
       <c r="W32" s="1">
         <v>8.6511130000000005</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB32" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>256</v>
       </c>
@@ -2318,8 +2684,20 @@
       <c r="W33" s="1">
         <v>9.6516520000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB33" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>256</v>
       </c>
@@ -2341,8 +2719,20 @@
       <c r="W34" s="1">
         <v>8.7112099999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB34" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>256</v>
       </c>
@@ -2364,8 +2754,20 @@
       <c r="W35" s="1">
         <v>9.1400400000000008</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB35" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>256</v>
       </c>
@@ -2387,8 +2789,20 @@
       <c r="W36" s="1">
         <v>9.776097</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB36" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>256</v>
       </c>
@@ -2410,8 +2824,20 @@
       <c r="W37" s="1">
         <v>18.525434000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB37" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>256</v>
       </c>
@@ -2433,8 +2859,20 @@
       <c r="W38" s="1">
         <v>17.985016999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB38" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>256</v>
       </c>
@@ -2456,8 +2894,20 @@
       <c r="W39" s="1">
         <v>17.895381</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB39" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>256</v>
       </c>
@@ -2479,8 +2929,20 @@
       <c r="W40" s="1">
         <v>18.773132</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB40" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>256</v>
       </c>
@@ -2502,8 +2964,20 @@
       <c r="W41" s="1">
         <v>18.707943</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB41" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>256</v>
       </c>
@@ -2525,8 +2999,20 @@
       <c r="W42" s="1">
         <v>18.917511000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB42" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>256</v>
       </c>
@@ -2548,8 +3034,20 @@
       <c r="W43" s="1">
         <v>19.283335999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB43" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>256</v>
       </c>
@@ -2571,8 +3069,20 @@
       <c r="W44" s="1">
         <v>19.071110000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB44" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>256</v>
       </c>
@@ -2594,8 +3104,20 @@
       <c r="W45" s="1">
         <v>19.175467000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB45" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>256</v>
       </c>
@@ -2617,8 +3139,20 @@
       <c r="W46" s="1">
         <v>19.156831</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB46" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>256</v>
       </c>
@@ -2640,8 +3174,20 @@
       <c r="W47" s="1">
         <v>18.906079999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB47" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>256</v>
       </c>
@@ -2663,8 +3209,20 @@
       <c r="W48" s="1">
         <v>18.719926000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB48" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>256</v>
       </c>
@@ -2686,8 +3244,20 @@
       <c r="W49" s="1">
         <v>19.391539999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB49" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>256</v>
       </c>
@@ -2709,8 +3279,20 @@
       <c r="W50" s="1">
         <v>19.444050000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB50" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>256</v>
       </c>
@@ -2732,8 +3314,20 @@
       <c r="W51" s="1">
         <v>19.527515000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB51" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>256</v>
       </c>
@@ -2755,8 +3349,20 @@
       <c r="W52" s="1">
         <v>19.565622000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB52" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>256</v>
       </c>
@@ -2778,8 +3384,20 @@
       <c r="W53" s="1">
         <v>19.620484000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB53" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>118.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>256</v>
       </c>
@@ -2801,8 +3419,20 @@
       <c r="W54" s="1">
         <v>19.651971</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB54" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>256</v>
       </c>
@@ -2824,8 +3454,20 @@
       <c r="W55" s="1">
         <v>19.480225999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB55" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>256</v>
       </c>
@@ -2847,8 +3489,20 @@
       <c r="W56" s="1">
         <v>19.496221999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB56" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>256</v>
       </c>
@@ -2870,8 +3524,20 @@
       <c r="W57" s="1">
         <v>19.699663999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB57" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>256</v>
       </c>
@@ -2893,8 +3559,20 @@
       <c r="W58" s="1">
         <v>19.800877</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB58" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>256</v>
       </c>
@@ -2916,8 +3594,20 @@
       <c r="W59" s="1">
         <v>19.726140999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB59" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>256</v>
       </c>
@@ -2939,8 +3629,20 @@
       <c r="W60" s="1">
         <v>19.783836999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB60" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>256</v>
       </c>
@@ -2962,8 +3664,20 @@
       <c r="W61" s="1">
         <v>19.790717000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB61" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>256</v>
       </c>
@@ -2985,8 +3699,20 @@
       <c r="W62" s="1">
         <v>14.689075000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB62" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>256</v>
       </c>
@@ -3008,8 +3734,20 @@
       <c r="W63" s="1">
         <v>16.474730999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB63" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>256</v>
       </c>
@@ -3031,8 +3769,20 @@
       <c r="W64" s="1">
         <v>18.630566000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB64" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>256</v>
       </c>
@@ -3054,8 +3804,20 @@
       <c r="W65" s="1">
         <v>17.988295000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB65" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>256</v>
       </c>
@@ -3077,8 +3839,20 @@
       <c r="W66" s="1">
         <v>15.460293</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB66" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>256</v>
       </c>
@@ -3100,8 +3874,20 @@
       <c r="W67" s="1">
         <v>18.750786000000002</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB67" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>256</v>
       </c>
@@ -3123,8 +3909,20 @@
       <c r="W68" s="1">
         <v>15.829658</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB68" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>256</v>
       </c>
@@ -3146,8 +3944,20 @@
       <c r="W69" s="1">
         <v>26.482603000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB69" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>256</v>
       </c>
@@ -3169,8 +3979,20 @@
       <c r="W70" s="1">
         <v>25.980069</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB70" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>256</v>
       </c>
@@ -3192,8 +4014,20 @@
       <c r="W71" s="1">
         <v>26.411321000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB71" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>256</v>
       </c>
@@ -3215,8 +4049,20 @@
       <c r="W72" s="1">
         <v>26.412794999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB72" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>256</v>
       </c>
@@ -3238,8 +4084,20 @@
       <c r="W73" s="1">
         <v>26.653244000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB73" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>256</v>
       </c>
@@ -3261,8 +4119,20 @@
       <c r="W74" s="1">
         <v>27.106294999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB74" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>256</v>
       </c>
@@ -3284,8 +4154,20 @@
       <c r="W75" s="1">
         <v>26.698933</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB75" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>256</v>
       </c>
@@ -3307,8 +4189,20 @@
       <c r="W76" s="1">
         <v>27.845431000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB76" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>256</v>
       </c>
@@ -3330,8 +4224,20 @@
       <c r="W77" s="1">
         <v>26.591965999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB77" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>256</v>
       </c>
@@ -3353,8 +4259,20 @@
       <c r="W78" s="1">
         <v>27.641379000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB78" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD78" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>256</v>
       </c>
@@ -3376,8 +4294,20 @@
       <c r="W79" s="1">
         <v>27.810693000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB79" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC79" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>256</v>
       </c>
@@ -3399,8 +4329,20 @@
       <c r="W80" s="1">
         <v>28.425218000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB80" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC80" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD80" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>256</v>
       </c>
@@ -3422,8 +4364,20 @@
       <c r="W81" s="1">
         <v>28.696939</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB81" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD81" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>256</v>
       </c>
@@ -3445,8 +4399,20 @@
       <c r="W82" s="1">
         <v>28.115935</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB82" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD82" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>256</v>
       </c>
@@ -3468,8 +4434,20 @@
       <c r="W83" s="1">
         <v>27.434902000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB83" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC83" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD83" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE83" s="1">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>256</v>
       </c>
@@ -3491,8 +4469,20 @@
       <c r="W84" s="1">
         <v>28.122107</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB84" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC84" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD84" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE84" s="1">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>256</v>
       </c>
@@ -3514,8 +4504,20 @@
       <c r="W85" s="1">
         <v>28.255327000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB85" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC85" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD85" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>256</v>
       </c>
@@ -3537,8 +4539,20 @@
       <c r="W86" s="1">
         <v>28.484539999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB86" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD86" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>256</v>
       </c>
@@ -3560,8 +4574,20 @@
       <c r="W87" s="1">
         <v>28.128519000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB87" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC87" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>256</v>
       </c>
@@ -3583,8 +4609,20 @@
       <c r="W88" s="1">
         <v>28.799982</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB88" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>256</v>
       </c>
@@ -3606,8 +4644,20 @@
       <c r="W89" s="1">
         <v>27.995179</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB89" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>256</v>
       </c>
@@ -3629,8 +4679,20 @@
       <c r="W90" s="1">
         <v>28.657219000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB90" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>256</v>
       </c>
@@ -3652,8 +4714,20 @@
       <c r="W91" s="1">
         <v>28.801175000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB91" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD91" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>256</v>
       </c>
@@ -3675,8 +4749,20 @@
       <c r="W92" s="1">
         <v>29.591989999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB92" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>256</v>
       </c>
@@ -3698,8 +4784,20 @@
       <c r="W93" s="1">
         <v>29.094685999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB93" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>256</v>
       </c>
@@ -3721,8 +4819,20 @@
       <c r="W94" s="1">
         <v>25.109079000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB94" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>256</v>
       </c>
@@ -3744,8 +4854,20 @@
       <c r="W95" s="1">
         <v>20.162461</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB95" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC95" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD95" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>256</v>
       </c>
@@ -3767,8 +4889,20 @@
       <c r="W96" s="1">
         <v>26.533683</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB96" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>256</v>
       </c>
@@ -3790,8 +4924,20 @@
       <c r="W97" s="1">
         <v>26.104361000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB97" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC97" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD97" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>256</v>
       </c>
@@ -3813,8 +4959,20 @@
       <c r="W98" s="1">
         <v>28.322455000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB98" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC98" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD98" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>256</v>
       </c>
@@ -3836,8 +4994,20 @@
       <c r="W99" s="1">
         <v>26.916799000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB99" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC99" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD99" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>256</v>
       </c>
@@ -3859,8 +5029,20 @@
       <c r="W100" s="1">
         <v>26.781886</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB100" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC100" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD100" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>256</v>
       </c>
@@ -3882,8 +5064,20 @@
       <c r="W101" s="1">
         <v>33.089982999999997</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB101" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC101" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD101" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>256</v>
       </c>
@@ -3905,8 +5099,20 @@
       <c r="W102" s="1">
         <v>34.408237999999997</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB102" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC102" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD102" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>256</v>
       </c>
@@ -3928,8 +5134,20 @@
       <c r="W103" s="1">
         <v>34.978169000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB103" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC103" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD103" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>256</v>
       </c>
@@ -3951,8 +5169,20 @@
       <c r="W104" s="1">
         <v>35.459944999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB104" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC104" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD104" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>256</v>
       </c>
@@ -3974,8 +5204,20 @@
       <c r="W105" s="1">
         <v>35.338448</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB105" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC105" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>256</v>
       </c>
@@ -3997,8 +5239,20 @@
       <c r="W106" s="1">
         <v>34.077050999999997</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB106" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC106" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD106" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>256</v>
       </c>
@@ -4020,8 +5274,20 @@
       <c r="W107" s="1">
         <v>35.804020999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB107" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>256</v>
       </c>
@@ -4043,8 +5309,20 @@
       <c r="W108" s="1">
         <v>38.113140000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB108" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC108" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD108" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>256</v>
       </c>
@@ -4066,8 +5344,20 @@
       <c r="W109" s="1">
         <v>38.144987999999998</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB109" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC109" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD109" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>256</v>
       </c>
@@ -4089,8 +5379,20 @@
       <c r="W110" s="1">
         <v>37.048032999999997</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB110" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC110" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD110" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>256</v>
       </c>
@@ -4112,8 +5414,20 @@
       <c r="W111" s="1">
         <v>35.927157000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB111" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC111" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD111" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>256</v>
       </c>
@@ -4135,8 +5449,20 @@
       <c r="W112" s="1">
         <v>36.936098000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB112" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC112" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD112" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>256</v>
       </c>
@@ -4158,8 +5484,20 @@
       <c r="W113" s="1">
         <v>37.711623000000003</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB113" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC113" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD113" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>256</v>
       </c>
@@ -4181,8 +5519,20 @@
       <c r="W114" s="1">
         <v>37.310198999999997</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB114" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC114" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD114" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>256</v>
       </c>
@@ -4204,8 +5554,20 @@
       <c r="W115" s="1">
         <v>28.838388999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB115" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC115" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD115" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>256</v>
       </c>
@@ -4227,8 +5589,20 @@
       <c r="W116" s="1">
         <v>38.325378000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB116" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC116" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD116" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>256</v>
       </c>
@@ -4250,8 +5624,20 @@
       <c r="W117" s="1">
         <v>17.049986000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB117" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC117" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD117" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>256</v>
       </c>
@@ -4273,8 +5659,20 @@
       <c r="W118" s="1">
         <v>36.575006000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB118" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC118" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD118" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>256</v>
       </c>
@@ -4296,8 +5694,20 @@
       <c r="W119" s="1">
         <v>33.490313999999998</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB119" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC119" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD119" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>256</v>
       </c>
@@ -4319,8 +5729,20 @@
       <c r="W120" s="1">
         <v>37.836809000000002</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB120" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC120" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD120" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>256</v>
       </c>
@@ -4342,8 +5764,20 @@
       <c r="W121" s="1">
         <v>38.595841999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB121" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC121" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD121" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>256</v>
       </c>
@@ -4365,8 +5799,20 @@
       <c r="W122" s="1">
         <v>37.159413000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB122" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC122" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD122" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>256</v>
       </c>
@@ -4388,8 +5834,20 @@
       <c r="W123" s="1">
         <v>39.421059999999997</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB123" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC123" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD123" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>256</v>
       </c>
@@ -4411,8 +5869,20 @@
       <c r="W124" s="1">
         <v>39.201892999999998</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB124" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC124" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD124" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>256</v>
       </c>
@@ -4434,8 +5904,20 @@
       <c r="W125" s="1">
         <v>39.183241000000002</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB125" s="1">
+        <v>256</v>
+      </c>
+      <c r="AC125" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD125" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>512</v>
       </c>
@@ -4457,8 +5939,20 @@
       <c r="W126" s="1">
         <v>33.095610000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB126" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC126" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD126" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE126" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>512</v>
       </c>
@@ -4480,8 +5974,20 @@
       <c r="W127" s="1">
         <v>22.623059999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB127" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC127" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD127" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE127" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>512</v>
       </c>
@@ -4503,8 +6009,20 @@
       <c r="W128" s="1">
         <v>24.497287</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB128" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC128" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD128" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE128" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>512</v>
       </c>
@@ -4526,8 +6044,20 @@
       <c r="W129" s="1">
         <v>34.870531999999997</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB129" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC129" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD129" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE129" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>512</v>
       </c>
@@ -4549,8 +6079,20 @@
       <c r="W130" s="1">
         <v>33.778866999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB130" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC130" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD130" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE130" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>512</v>
       </c>
@@ -4572,8 +6114,20 @@
       <c r="W131" s="1">
         <v>26.587160999999998</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB131" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC131" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD131" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE131" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>512</v>
       </c>
@@ -4595,8 +6149,20 @@
       <c r="W132" s="1">
         <v>32.707906000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB132" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC132" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD132" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE132" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>512</v>
       </c>
@@ -4618,8 +6184,20 @@
       <c r="W133" s="1">
         <v>36.298158000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB133" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC133" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD133" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE133" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>512</v>
       </c>
@@ -4641,8 +6219,20 @@
       <c r="W134" s="1">
         <v>37.529670000000003</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB134" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC134" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD134" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE134" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>512</v>
       </c>
@@ -4664,8 +6254,20 @@
       <c r="W135" s="1">
         <v>38.866978000000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB135" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC135" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD135" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>512</v>
       </c>
@@ -4687,8 +6289,20 @@
       <c r="W136" s="1">
         <v>37.608165</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB136" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC136" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD136" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>512</v>
       </c>
@@ -4710,8 +6324,20 @@
       <c r="W137" s="1">
         <v>40.698309000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB137" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC137" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD137" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE137" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>512</v>
       </c>
@@ -4733,8 +6359,20 @@
       <c r="W138" s="1">
         <v>40.322375000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB138" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC138" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD138" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE138" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>512</v>
       </c>
@@ -4756,8 +6394,20 @@
       <c r="W139" s="1">
         <v>20.816811999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB139" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC139" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD139" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE139" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>512</v>
       </c>
@@ -4779,8 +6429,20 @@
       <c r="W140" s="1">
         <v>41.298146000000003</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB140" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC140" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD140" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE140" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>512</v>
       </c>
@@ -4802,8 +6464,20 @@
       <c r="W141" s="1">
         <v>41.531001000000003</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB141" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC141" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD141" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE141" s="1">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>512</v>
       </c>
@@ -4825,8 +6499,20 @@
       <c r="W142" s="1">
         <v>40.419378999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB142" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC142" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD142" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE142" s="1">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>512</v>
       </c>
@@ -4848,8 +6534,20 @@
       <c r="W143" s="1">
         <v>42.689520000000002</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB143" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC143" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD143" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE143" s="1">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>512</v>
       </c>
@@ -4871,8 +6569,20 @@
       <c r="W144" s="1">
         <v>35.259911000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB144" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC144" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD144" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE144" s="1">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>512</v>
       </c>
@@ -4894,8 +6604,20 @@
       <c r="W145" s="1">
         <v>42.971206000000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB145" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC145" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD145" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE145" s="1">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>512</v>
       </c>
@@ -4917,8 +6639,20 @@
       <c r="W146" s="1">
         <v>43.213205000000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB146" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC146" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD146" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>512</v>
       </c>
@@ -4940,8 +6674,20 @@
       <c r="W147" s="1">
         <v>43.925463999999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB147" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC147" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD147" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>512</v>
       </c>
@@ -4963,8 +6709,20 @@
       <c r="W148" s="1">
         <v>44.038448000000002</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB148" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC148" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD148" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE148" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>512</v>
       </c>
@@ -4986,8 +6744,20 @@
       <c r="W149" s="1">
         <v>44.018250000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB149" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC149" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD149" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE149" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>512</v>
       </c>
@@ -5009,8 +6779,20 @@
       <c r="W150" s="1">
         <v>43.845370000000003</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB150" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC150" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD150" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE150" s="1">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>512</v>
       </c>
@@ -5032,8 +6814,20 @@
       <c r="W151" s="1">
         <v>44.127189999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB151" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC151" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD151" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE151" s="1">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>512</v>
       </c>
@@ -5055,8 +6849,20 @@
       <c r="W152" s="1">
         <v>44.838034</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB152" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC152" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD152" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE152" s="1">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>512</v>
       </c>
@@ -5078,8 +6884,20 @@
       <c r="W153" s="1">
         <v>44.621369000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB153" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC153" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD153" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE153" s="1">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>512</v>
       </c>
@@ -5101,8 +6919,20 @@
       <c r="W154" s="1">
         <v>44.355131</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB154" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC154" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD154" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE154" s="1">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>512</v>
       </c>
@@ -5124,8 +6954,20 @@
       <c r="W155" s="1">
         <v>45.175376999999997</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB155" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC155" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD155" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE155" s="1">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>512</v>
       </c>
@@ -5147,8 +6989,20 @@
       <c r="W156" s="1">
         <v>44.350496999999997</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB156" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC156" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD156" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>512</v>
       </c>
@@ -5170,8 +7024,20 @@
       <c r="W157" s="1">
         <v>45.254888000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB157" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC157" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD157" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>512</v>
       </c>
@@ -5193,8 +7059,20 @@
       <c r="W158" s="1">
         <v>24.638127999999998</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB158" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC158" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD158" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>512</v>
       </c>
@@ -5216,8 +7094,20 @@
       <c r="W159" s="1">
         <v>25.392029999999998</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB159" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC159" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD159" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE159" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>512</v>
       </c>
@@ -5239,8 +7129,20 @@
       <c r="W160" s="1">
         <v>39.854602999999997</v>
       </c>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB160" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC160" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD160" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE160" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>512</v>
       </c>
@@ -5262,8 +7164,20 @@
       <c r="W161" s="1">
         <v>44.607627999999998</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB161" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC161" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD161" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE161" s="1">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>512</v>
       </c>
@@ -5285,8 +7199,20 @@
       <c r="W162" s="1">
         <v>26.606776</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB162" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC162" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD162" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE162" s="1">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>512</v>
       </c>
@@ -5308,8 +7234,20 @@
       <c r="W163" s="1">
         <v>33.04354</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB163" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC163" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD163" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE163" s="1">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="164" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>512</v>
       </c>
@@ -5331,8 +7269,20 @@
       <c r="W164" s="1">
         <v>28.649474000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB164" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC164" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD164" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE164" s="1">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>512</v>
       </c>
@@ -5354,8 +7304,20 @@
       <c r="W165" s="1">
         <v>44.317520999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB165" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC165" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD165" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE165" s="1">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>512</v>
       </c>
@@ -5377,8 +7339,20 @@
       <c r="W166" s="1">
         <v>45.859344999999998</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB166" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC166" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD166" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>512</v>
       </c>
@@ -5400,8 +7374,20 @@
       <c r="W167" s="1">
         <v>45.424967000000002</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB167" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC167" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD167" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>512</v>
       </c>
@@ -5423,8 +7409,20 @@
       <c r="W168" s="1">
         <v>47.758414000000002</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB168" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC168" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD168" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>512</v>
       </c>
@@ -5446,8 +7444,20 @@
       <c r="W169" s="1">
         <v>49.489207999999998</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB169" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC169" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD169" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>512</v>
       </c>
@@ -5469,8 +7479,20 @@
       <c r="W170" s="1">
         <v>50.816639000000002</v>
       </c>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB170" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC170" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD170" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE170" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>512</v>
       </c>
@@ -5492,8 +7514,20 @@
       <c r="W171" s="1">
         <v>50.852021000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB171" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC171" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD171" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE171" s="1">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>512</v>
       </c>
@@ -5515,8 +7549,20 @@
       <c r="W172" s="1">
         <v>51.879122000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB172" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC172" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD172" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE172" s="1">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="173" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>512</v>
       </c>
@@ -5538,8 +7584,20 @@
       <c r="W173" s="1">
         <v>50.949863999999998</v>
       </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB173" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC173" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD173" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE173" s="1">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>512</v>
       </c>
@@ -5561,8 +7619,20 @@
       <c r="W174" s="1">
         <v>51.347383000000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB174" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC174" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD174" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE174" s="1">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>512</v>
       </c>
@@ -5584,8 +7654,20 @@
       <c r="W175" s="1">
         <v>52.193604999999998</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB175" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC175" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD175" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE175" s="1">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>512</v>
       </c>
@@ -5607,8 +7689,20 @@
       <c r="W176" s="1">
         <v>52.532243999999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB176" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC176" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD176" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>512</v>
       </c>
@@ -5630,8 +7724,20 @@
       <c r="W177" s="1">
         <v>52.738196000000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB177" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC177" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD177" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>512</v>
       </c>
@@ -5653,8 +7759,20 @@
       <c r="W178" s="1">
         <v>53.647342999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB178" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC178" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD178" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>512</v>
       </c>
@@ -5676,8 +7794,20 @@
       <c r="W179" s="1">
         <v>53.800849999999997</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB179" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC179" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD179" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>512</v>
       </c>
@@ -5699,8 +7829,20 @@
       <c r="W180" s="1">
         <v>51.021107000000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB180" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC180" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD180" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>512</v>
       </c>
@@ -5722,8 +7864,20 @@
       <c r="W181" s="1">
         <v>53.708846999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB181" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC181" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD181" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE181" s="1">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>512</v>
       </c>
@@ -5745,8 +7899,20 @@
       <c r="W182" s="1">
         <v>53.281319000000003</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB182" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC182" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD182" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE182" s="1">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>512</v>
       </c>
@@ -5768,8 +7934,20 @@
       <c r="W183" s="1">
         <v>53.877121000000002</v>
       </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB183" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC183" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD183" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE183" s="1">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>512</v>
       </c>
@@ -5791,8 +7969,20 @@
       <c r="W184" s="1">
         <v>49.58426</v>
       </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB184" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC184" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD184" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE184" s="1">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>512</v>
       </c>
@@ -5814,8 +8004,20 @@
       <c r="W185" s="1">
         <v>53.912016000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB185" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC185" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD185" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE185" s="1">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>512</v>
       </c>
@@ -5837,8 +8039,20 @@
       <c r="W186" s="1">
         <v>28.772020000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB186" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC186" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD186" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>512</v>
       </c>
@@ -5860,8 +8074,20 @@
       <c r="W187" s="1">
         <v>54.898643999999997</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB187" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC187" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD187" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>512</v>
       </c>
@@ -5883,8 +8109,20 @@
       <c r="W188" s="1">
         <v>53.168694000000002</v>
       </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB188" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC188" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD188" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>512</v>
       </c>
@@ -5906,8 +8144,20 @@
       <c r="W189" s="1">
         <v>54.335996000000002</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB189" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC189" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD189" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>512</v>
       </c>
@@ -5929,8 +8179,20 @@
       <c r="W190" s="1">
         <v>26.924987999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB190" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC190" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD190" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>512</v>
       </c>
@@ -5952,8 +8214,20 @@
       <c r="W191" s="1">
         <v>30.926648</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB191" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC191" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD191" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>512</v>
       </c>
@@ -5975,8 +8249,20 @@
       <c r="W192" s="1">
         <v>50.760553999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB192" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC192" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD192" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE192" s="1">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>512</v>
       </c>
@@ -5998,8 +8284,20 @@
       <c r="W193" s="1">
         <v>46.020277</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB193" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC193" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD193" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE193" s="1">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>512</v>
       </c>
@@ -6021,8 +8319,20 @@
       <c r="W194" s="1">
         <v>33.765917000000002</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB194" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC194" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD194" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE194" s="1">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>512</v>
       </c>
@@ -6044,8 +8354,20 @@
       <c r="W195" s="1">
         <v>45.162233000000001</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB195" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC195" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD195" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE195" s="1">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>512</v>
       </c>
@@ -6067,8 +8389,20 @@
       <c r="W196" s="1">
         <v>50.534030000000001</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB196" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC196" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD196" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>512</v>
       </c>
@@ -6090,8 +8424,20 @@
       <c r="W197" s="1">
         <v>43.58699</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB197" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC197" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD197" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>512</v>
       </c>
@@ -6113,8 +8459,20 @@
       <c r="W198" s="1">
         <v>44.315942</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB198" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC198" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD198" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>512</v>
       </c>
@@ -6136,8 +8494,20 @@
       <c r="W199" s="1">
         <v>46.897640000000003</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB199" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC199" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD199" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>512</v>
       </c>
@@ -6159,8 +8529,20 @@
       <c r="W200" s="1">
         <v>47.243349000000002</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB200" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC200" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD200" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>512</v>
       </c>
@@ -6182,8 +8564,20 @@
       <c r="W201" s="1">
         <v>50.729872</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB201" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC201" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD201" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>512</v>
       </c>
@@ -6205,8 +8599,20 @@
       <c r="W202" s="1">
         <v>49.876258</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB202" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC202" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD202" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>512</v>
       </c>
@@ -6228,8 +8634,20 @@
       <c r="W203" s="1">
         <v>51.693655999999997</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB203" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC203" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD203" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE203" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="204" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>512</v>
       </c>
@@ -6251,8 +8669,20 @@
       <c r="W204" s="1">
         <v>52.194234000000002</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB204" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC204" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD204" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE204" s="1">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>512</v>
       </c>
@@ -6274,8 +8704,20 @@
       <c r="W205" s="1">
         <v>52.756042000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB205" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC205" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD205" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE205" s="1">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
         <v>512</v>
       </c>
@@ -6297,8 +8739,20 @@
       <c r="W206" s="1">
         <v>52.033341999999998</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB206" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC206" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD206" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
         <v>512</v>
       </c>
@@ -6320,8 +8774,20 @@
       <c r="W207" s="1">
         <v>53.159052000000003</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB207" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC207" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD207" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
         <v>512</v>
       </c>
@@ -6343,8 +8809,20 @@
       <c r="W208" s="1">
         <v>53.124808999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB208" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC208" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD208" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
         <v>512</v>
       </c>
@@ -6366,8 +8844,20 @@
       <c r="W209" s="1">
         <v>55.738121</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB209" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC209" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD209" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
         <v>512</v>
       </c>
@@ -6389,8 +8879,20 @@
       <c r="W210" s="1">
         <v>55.278343999999997</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB210" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC210" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD210" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
         <v>512</v>
       </c>
@@ -6412,8 +8914,20 @@
       <c r="W211" s="1">
         <v>53.403039999999997</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB211" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC211" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD211" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
         <v>512</v>
       </c>
@@ -6435,8 +8949,20 @@
       <c r="W212" s="1">
         <v>39.032750999999998</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB212" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC212" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD212" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
         <v>512</v>
       </c>
@@ -6458,8 +8984,20 @@
       <c r="W213" s="1">
         <v>57.423803999999997</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB213" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC213" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD213" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
         <v>512</v>
       </c>
@@ -6481,8 +9019,20 @@
       <c r="W214" s="1">
         <v>52.894423000000003</v>
       </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB214" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC214" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD214" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE214" s="1">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
         <v>512</v>
       </c>
@@ -6504,8 +9054,20 @@
       <c r="W215" s="1">
         <v>47.692731999999999</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB215" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC215" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD215" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE215" s="1">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
         <v>512</v>
       </c>
@@ -6527,8 +9089,20 @@
       <c r="W216" s="1">
         <v>58.071815000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB216" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC216" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD216" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
         <v>512</v>
       </c>
@@ -6550,8 +9124,20 @@
       <c r="W217" s="1">
         <v>59.265003</v>
       </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB217" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC217" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD217" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
         <v>512</v>
       </c>
@@ -6573,8 +9159,20 @@
       <c r="W218" s="1">
         <v>55.282175000000002</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB218" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC218" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD218" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
         <v>512</v>
       </c>
@@ -6596,8 +9194,20 @@
       <c r="W219" s="1">
         <v>54.698143000000002</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB219" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC219" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD219" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
         <v>512</v>
       </c>
@@ -6619,8 +9229,20 @@
       <c r="W220" s="1">
         <v>59.973218000000003</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB220" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC220" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD220" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
         <v>512</v>
       </c>
@@ -6642,8 +9264,20 @@
       <c r="W221" s="1">
         <v>60.641401999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB221" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC221" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD221" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
         <v>512</v>
       </c>
@@ -6665,8 +9299,20 @@
       <c r="W222" s="1">
         <v>27.411234</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB222" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC222" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD222" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
         <v>512</v>
       </c>
@@ -6688,8 +9334,20 @@
       <c r="W223" s="1">
         <v>39.741383999999996</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB223" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC223" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD223" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
         <v>512</v>
       </c>
@@ -6711,8 +9369,20 @@
       <c r="W224" s="1">
         <v>32.790314000000002</v>
       </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB224" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC224" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD224" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
         <v>512</v>
       </c>
@@ -6734,8 +9404,20 @@
       <c r="W225" s="1">
         <v>53.489547999999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB225" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC225" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD225" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
         <v>512</v>
       </c>
@@ -6757,8 +9439,20 @@
       <c r="W226" s="1">
         <v>36.164045999999999</v>
       </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB226" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC226" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD226" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
         <v>512</v>
       </c>
@@ -6780,8 +9474,20 @@
       <c r="W227" s="1">
         <v>36.098393999999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB227" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC227" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD227" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
         <v>512</v>
       </c>
@@ -6803,8 +9509,20 @@
       <c r="W228" s="1">
         <v>32.617153000000002</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB228" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC228" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD228" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
         <v>512</v>
       </c>
@@ -6826,8 +9544,20 @@
       <c r="W229" s="1">
         <v>28.939053000000001</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB229" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC229" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD229" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
         <v>512</v>
       </c>
@@ -6849,8 +9579,20 @@
       <c r="W230" s="1">
         <v>29.695653</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB230" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC230" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD230" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
         <v>512</v>
       </c>
@@ -6872,8 +9614,20 @@
       <c r="W231" s="1">
         <v>56.425699000000002</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB231" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC231" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD231" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
         <v>512</v>
       </c>
@@ -6895,8 +9649,20 @@
       <c r="W232" s="1">
         <v>56.307119</v>
       </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB232" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC232" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD232" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
         <v>512</v>
       </c>
@@ -6918,8 +9684,20 @@
       <c r="W233" s="1">
         <v>30.329681999999998</v>
       </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB233" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC233" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD233" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
         <v>512</v>
       </c>
@@ -6941,8 +9719,20 @@
       <c r="W234" s="1">
         <v>31.178433999999999</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB234" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC234" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD234" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
         <v>512</v>
       </c>
@@ -6964,8 +9754,20 @@
       <c r="W235" s="1">
         <v>31.052631999999999</v>
       </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB235" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC235" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD235" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
         <v>512</v>
       </c>
@@ -6987,8 +9789,20 @@
       <c r="W236" s="1">
         <v>61.856743999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB236" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC236" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD236" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
         <v>512</v>
       </c>
@@ -7010,8 +9824,20 @@
       <c r="W237" s="1">
         <v>31.702075000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB237" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC237" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD237" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
         <v>512</v>
       </c>
@@ -7033,8 +9859,20 @@
       <c r="W238" s="1">
         <v>63.798234000000001</v>
       </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB238" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC238" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD238" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
         <v>512</v>
       </c>
@@ -7056,8 +9894,20 @@
       <c r="W239" s="1">
         <v>64.862108000000006</v>
       </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB239" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC239" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD239" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
         <v>512</v>
       </c>
@@ -7079,8 +9929,20 @@
       <c r="W240" s="1">
         <v>66.422871000000001</v>
       </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB240" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC240" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD240" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
         <v>512</v>
       </c>
@@ -7102,8 +9964,20 @@
       <c r="W241" s="1">
         <v>64.910647999999995</v>
       </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB241" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC241" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD241" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
         <v>512</v>
       </c>
@@ -7125,8 +9999,20 @@
       <c r="W242" s="1">
         <v>32.828166000000003</v>
       </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB242" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC242" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD242" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
         <v>512</v>
       </c>
@@ -7148,8 +10034,20 @@
       <c r="W243" s="1">
         <v>62.202393999999998</v>
       </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB243" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC243" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD243" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
         <v>512</v>
       </c>
@@ -7171,8 +10069,20 @@
       <c r="W244" s="1">
         <v>32.832917999999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB244" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC244" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD244" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
         <v>512</v>
       </c>
@@ -7194,8 +10104,20 @@
       <c r="W245" s="1">
         <v>32.876061999999997</v>
       </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB245" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC245" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD245" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
         <v>512</v>
       </c>
@@ -7217,8 +10139,20 @@
       <c r="W246" s="1">
         <v>33.046073</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB246" s="1">
+        <v>512</v>
+      </c>
+      <c r="AC246" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD246" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
         <v>1024</v>
       </c>
@@ -7240,8 +10174,20 @@
       <c r="W247" s="1">
         <v>64.723651000000004</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB247" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD247" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE247" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
         <v>1024</v>
       </c>
@@ -7263,8 +10209,20 @@
       <c r="W248" s="1">
         <v>69.945832999999993</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB248" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC248" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD248" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE248" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
         <v>1024</v>
       </c>
@@ -7286,8 +10244,20 @@
       <c r="W249" s="1">
         <v>33.333776</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB249" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC249" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD249" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE249" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
         <v>1024</v>
       </c>
@@ -7309,8 +10279,20 @@
       <c r="W250" s="1">
         <v>71.108379999999997</v>
       </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB250" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC250" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD250" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE250" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="251" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
         <v>1024</v>
       </c>
@@ -7332,8 +10314,20 @@
       <c r="W251" s="1">
         <v>47.331691999999997</v>
       </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB251" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC251" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD251" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE251" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
         <v>1024</v>
       </c>
@@ -7355,8 +10349,20 @@
       <c r="W252" s="1">
         <v>71.545336000000006</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB252" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC252" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD252" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE252" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
         <v>1024</v>
       </c>
@@ -7378,8 +10384,20 @@
       <c r="W253" s="1">
         <v>71.542323999999994</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB253" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC253" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD253" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE253" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
         <v>1024</v>
       </c>
@@ -7401,8 +10419,20 @@
       <c r="W254" s="1">
         <v>28.869335</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB254" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC254" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD254" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE254" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
         <v>1024</v>
       </c>
@@ -7424,8 +10454,20 @@
       <c r="W255" s="1">
         <v>40.908234999999998</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB255" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC255" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD255" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE255" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
         <v>1024</v>
       </c>
@@ -7447,8 +10489,20 @@
       <c r="W256" s="1">
         <v>60.758654</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB256" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC256" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD256" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE256" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
         <v>1024</v>
       </c>
@@ -7470,8 +10524,20 @@
       <c r="W257" s="1">
         <v>67.910103000000007</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB257" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC257" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD257" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
         <v>1024</v>
       </c>
@@ -7493,8 +10559,20 @@
       <c r="W258" s="1">
         <v>54.675029000000002</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB258" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC258" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD258" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE258" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
         <v>1024</v>
       </c>
@@ -7516,8 +10594,20 @@
       <c r="W259" s="1">
         <v>38.247655000000002</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB259" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC259" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD259" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE259" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
         <v>1024</v>
       </c>
@@ -7539,8 +10629,20 @@
       <c r="W260" s="1">
         <v>56.992004000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB260" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC260" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD260" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE260" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="261" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
         <v>1024</v>
       </c>
@@ -7553,8 +10655,20 @@
       <c r="D261" s="1">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB261" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC261" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD261" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE261" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
         <v>1024</v>
       </c>
@@ -7567,8 +10681,20 @@
       <c r="D262" s="1">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB262" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC262" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD262" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE262" s="1">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
         <v>1024</v>
       </c>
@@ -7581,8 +10707,20 @@
       <c r="D263" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB263" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC263" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD263" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE263" s="1">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
         <v>1024</v>
       </c>
@@ -7595,8 +10733,20 @@
       <c r="D264" s="1">
         <v>48.3</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB264" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC264" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD264" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE264" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
         <v>1024</v>
       </c>
@@ -7609,8 +10759,20 @@
       <c r="D265" s="1">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB265" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC265" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD265" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE265" s="1">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
         <v>1024</v>
       </c>
@@ -7623,8 +10785,20 @@
       <c r="D266" s="1">
         <v>56.6</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB266" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC266" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD266" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE266" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
         <v>1024</v>
       </c>
@@ -7637,8 +10811,20 @@
       <c r="D267" s="1">
         <v>56.1</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB267" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC267" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD267" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
         <v>1024</v>
       </c>
@@ -7651,8 +10837,20 @@
       <c r="D268" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB268" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC268" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD268" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
         <v>1024</v>
       </c>
@@ -7665,8 +10863,20 @@
       <c r="D269" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB269" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC269" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD269" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE269" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
         <v>1024</v>
       </c>
@@ -7679,8 +10889,20 @@
       <c r="D270" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB270" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC270" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD270" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE270" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
         <v>1024</v>
       </c>
@@ -7693,8 +10915,20 @@
       <c r="D271" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="AB271" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC271" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD271" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE271" s="1">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
         <v>1024</v>
       </c>
@@ -7707,8 +10941,20 @@
       <c r="D272" s="1">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB272" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC272" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD272" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE272" s="1">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="273" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
         <v>1024</v>
       </c>
@@ -7721,8 +10967,20 @@
       <c r="D273" s="1">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB273" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC273" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD273" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE273" s="1">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
         <v>1024</v>
       </c>
@@ -7735,8 +10993,20 @@
       <c r="D274" s="1">
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB274" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC274" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD274" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE274" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
         <v>1024</v>
       </c>
@@ -7749,8 +11019,20 @@
       <c r="D275" s="1">
         <v>38.5</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB275" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC275" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD275" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE275" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
         <v>1024</v>
       </c>
@@ -7763,8 +11045,20 @@
       <c r="D276" s="1">
         <v>38.4</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB276" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC276" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD276" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE276" s="1">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
         <v>1024</v>
       </c>
@@ -7777,8 +11071,20 @@
       <c r="D277" s="1">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB277" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC277" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD277" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
         <v>1024</v>
       </c>
@@ -7791,8 +11097,20 @@
       <c r="D278" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB278" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC278" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD278" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
         <v>1024</v>
       </c>
@@ -7805,8 +11123,20 @@
       <c r="D279" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB279" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC279" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD279" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
         <v>1024</v>
       </c>
@@ -7819,8 +11149,20 @@
       <c r="D280" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB280" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC280" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD280" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE280" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
         <v>1024</v>
       </c>
@@ -7833,8 +11175,20 @@
       <c r="D281" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB281" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC281" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD281" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE281" s="1">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
         <v>1024</v>
       </c>
@@ -7847,8 +11201,20 @@
       <c r="D282" s="1">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB282" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC282" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD282" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE282" s="1">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
         <v>1024</v>
       </c>
@@ -7861,8 +11227,20 @@
       <c r="D283" s="1">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB283" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC283" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD283" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE283" s="1">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
         <v>1024</v>
       </c>
@@ -7875,8 +11253,20 @@
       <c r="D284" s="1">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB284" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC284" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD284" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE284" s="1">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
         <v>1024</v>
       </c>
@@ -7889,8 +11279,20 @@
       <c r="D285" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB285" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC285" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD285" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE285" s="1">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
         <v>1024</v>
       </c>
@@ -7903,8 +11305,20 @@
       <c r="D286" s="1">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB286" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC286" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD286" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE286" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="287" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
         <v>1024</v>
       </c>
@@ -7917,8 +11331,20 @@
       <c r="D287" s="1">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB287" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC287" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD287" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
         <v>1024</v>
       </c>
@@ -7931,8 +11357,20 @@
       <c r="D288" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB288" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC288" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD288" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
         <v>1024</v>
       </c>
@@ -7945,8 +11383,20 @@
       <c r="D289" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB289" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC289" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD289" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
         <v>1024</v>
       </c>
@@ -7959,8 +11409,20 @@
       <c r="D290" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB290" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC290" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD290" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
         <v>1024</v>
       </c>
@@ -7973,8 +11435,20 @@
       <c r="D291" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB291" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC291" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD291" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE291" s="1">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
         <v>1024</v>
       </c>
@@ -7987,8 +11461,20 @@
       <c r="D292" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB292" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC292" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD292" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE292" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="293" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A293" s="1">
         <v>1024</v>
       </c>
@@ -8001,8 +11487,20 @@
       <c r="D293" s="1">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB293" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC293" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD293" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE293" s="1">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="294" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
         <v>1024</v>
       </c>
@@ -8015,8 +11513,20 @@
       <c r="D294" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB294" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC294" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD294" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE294" s="1">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A295" s="1">
         <v>1024</v>
       </c>
@@ -8029,8 +11539,20 @@
       <c r="D295" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB295" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC295" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD295" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE295" s="1">
+        <v>130.1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A296" s="1">
         <v>1024</v>
       </c>
@@ -8043,8 +11565,20 @@
       <c r="D296" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB296" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC296" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD296" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE296" s="1">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A297" s="1">
         <v>1024</v>
       </c>
@@ -8057,8 +11591,20 @@
       <c r="D297" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB297" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC297" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD297" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A298" s="1">
         <v>1024</v>
       </c>
@@ -8071,8 +11617,20 @@
       <c r="D298" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB298" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC298" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD298" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A299" s="1">
         <v>1024</v>
       </c>
@@ -8085,8 +11643,20 @@
       <c r="D299" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB299" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC299" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD299" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A300" s="1">
         <v>1024</v>
       </c>
@@ -8099,8 +11669,20 @@
       <c r="D300" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB300" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC300" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD300" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
         <v>1024</v>
       </c>
@@ -8113,8 +11695,20 @@
       <c r="D301" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB301" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC301" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD301" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A302" s="1">
         <v>1024</v>
       </c>
@@ -8127,8 +11721,20 @@
       <c r="D302" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB302" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC302" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD302" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE302" s="1">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A303" s="1">
         <v>1024</v>
       </c>
@@ -8141,8 +11747,20 @@
       <c r="D303" s="1">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB303" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC303" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD303" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE303" s="1">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
         <v>1024</v>
       </c>
@@ -8155,8 +11773,20 @@
       <c r="D304" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB304" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC304" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD304" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE304" s="1">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A305" s="1">
         <v>1024</v>
       </c>
@@ -8169,8 +11799,20 @@
       <c r="D305" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB305" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC305" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD305" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE305" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="306" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
         <v>1024</v>
       </c>
@@ -8183,8 +11825,20 @@
       <c r="D306" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB306" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC306" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD306" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE306" s="1">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A307" s="1">
         <v>1024</v>
       </c>
@@ -8197,8 +11851,20 @@
       <c r="D307" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB307" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC307" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD307" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A308" s="1">
         <v>1024</v>
       </c>
@@ -8211,8 +11877,20 @@
       <c r="D308" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB308" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC308" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD308" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A309" s="1">
         <v>1024</v>
       </c>
@@ -8225,8 +11903,20 @@
       <c r="D309" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB309" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC309" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD309" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A310" s="1">
         <v>1024</v>
       </c>
@@ -8239,8 +11929,20 @@
       <c r="D310" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB310" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC310" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD310" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A311" s="1">
         <v>1024</v>
       </c>
@@ -8253,8 +11955,20 @@
       <c r="D311" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB311" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC311" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD311" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A312" s="1">
         <v>1024</v>
       </c>
@@ -8267,8 +11981,20 @@
       <c r="D312" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB312" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC312" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD312" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A313" s="1">
         <v>1024</v>
       </c>
@@ -8281,8 +12007,20 @@
       <c r="D313" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB313" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC313" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD313" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE313" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="314" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A314" s="1">
         <v>1024</v>
       </c>
@@ -8295,8 +12033,20 @@
       <c r="D314" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB314" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC314" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD314" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE314" s="1">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A315" s="1">
         <v>1024</v>
       </c>
@@ -8309,8 +12059,20 @@
       <c r="D315" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB315" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC315" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD315" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE315" s="1">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A316" s="1">
         <v>1024</v>
       </c>
@@ -8323,8 +12085,20 @@
       <c r="D316" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB316" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC316" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD316" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE316" s="1">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A317" s="1">
         <v>1024</v>
       </c>
@@ -8337,8 +12111,20 @@
       <c r="D317" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB317" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC317" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD317" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE317" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A318" s="1">
         <v>1024</v>
       </c>
@@ -8351,8 +12137,20 @@
       <c r="D318" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB318" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC318" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD318" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE318" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A319" s="1">
         <v>1024</v>
       </c>
@@ -8365,8 +12163,20 @@
       <c r="D319" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB319" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC319" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD319" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE319" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A320" s="1">
         <v>1024</v>
       </c>
@@ -8379,8 +12189,20 @@
       <c r="D320" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB320" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC320" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD320" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE320" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
         <v>1024</v>
       </c>
@@ -8393,8 +12215,20 @@
       <c r="D321" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB321" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC321" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD321" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE321" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A322" s="1">
         <v>1024</v>
       </c>
@@ -8407,8 +12241,20 @@
       <c r="D322" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB322" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC322" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD322" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
         <v>1024</v>
       </c>
@@ -8421,8 +12267,20 @@
       <c r="D323" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB323" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC323" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD323" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
         <v>1024</v>
       </c>
@@ -8435,8 +12293,20 @@
       <c r="D324" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB324" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC324" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD324" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE324" s="1">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A325" s="1">
         <v>1024</v>
       </c>
@@ -8449,8 +12319,20 @@
       <c r="D325" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB325" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC325" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD325" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE325" s="1">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
         <v>1024</v>
       </c>
@@ -8463,8 +12345,20 @@
       <c r="D326" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB326" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC326" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD326" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE326" s="1">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
         <v>1024</v>
       </c>
@@ -8477,8 +12371,20 @@
       <c r="D327" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB327" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC327" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD327" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE327" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A328" s="1">
         <v>1024</v>
       </c>
@@ -8491,8 +12397,20 @@
       <c r="D328" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB328" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC328" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD328" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A329" s="1">
         <v>1024</v>
       </c>
@@ -8505,8 +12423,20 @@
       <c r="D329" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB329" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC329" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD329" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
         <v>1024</v>
       </c>
@@ -8519,8 +12449,20 @@
       <c r="D330" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB330" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC330" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD330" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE330" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A331" s="1">
         <v>1024</v>
       </c>
@@ -8533,8 +12475,20 @@
       <c r="D331" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB331" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC331" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD331" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE331" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A332" s="1">
         <v>1024</v>
       </c>
@@ -8547,8 +12501,20 @@
       <c r="D332" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB332" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC332" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD332" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE332" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A333" s="1">
         <v>1024</v>
       </c>
@@ -8561,8 +12527,20 @@
       <c r="D333" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB333" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC333" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD333" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE333" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
         <v>1024</v>
       </c>
@@ -8575,8 +12553,20 @@
       <c r="D334" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB334" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC334" s="1">
+        <v>128</v>
+      </c>
+      <c r="AD334" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE334" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
         <v>1024</v>
       </c>
@@ -8589,8 +12579,20 @@
       <c r="D335" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB335" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC335" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD335" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE335" s="1">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A336" s="1">
         <v>1024</v>
       </c>
@@ -8603,8 +12605,20 @@
       <c r="D336" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB336" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC336" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD336" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE336" s="1">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="337" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
         <v>1024</v>
       </c>
@@ -8617,8 +12631,20 @@
       <c r="D337" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB337" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC337" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD337" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE337" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
         <v>1024</v>
       </c>
@@ -8631,8 +12657,20 @@
       <c r="D338" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB338" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC338" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD338" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A339" s="1">
         <v>1024</v>
       </c>
@@ -8645,8 +12683,20 @@
       <c r="D339" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB339" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC339" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD339" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
         <v>1024</v>
       </c>
@@ -8659,8 +12709,20 @@
       <c r="D340" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB340" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC340" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD340" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
         <v>1024</v>
       </c>
@@ -8673,8 +12735,20 @@
       <c r="D341" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB341" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC341" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD341" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
         <v>1024</v>
       </c>
@@ -8687,8 +12761,20 @@
       <c r="D342" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB342" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC342" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD342" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
         <v>1024</v>
       </c>
@@ -8701,8 +12787,20 @@
       <c r="D343" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB343" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC343" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD343" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
         <v>1024</v>
       </c>
@@ -8715,8 +12813,20 @@
       <c r="D344" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB344" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC344" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD344" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
         <v>1024</v>
       </c>
@@ -8729,8 +12839,20 @@
       <c r="D345" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB345" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC345" s="1">
+        <v>256</v>
+      </c>
+      <c r="AD345" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE345" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
         <v>1024</v>
       </c>
@@ -8743,8 +12865,20 @@
       <c r="D346" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB346" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC346" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD346" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE346" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="347" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
         <v>1024</v>
       </c>
@@ -8757,8 +12891,20 @@
       <c r="D347" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB347" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC347" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD347" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE347" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
         <v>1024</v>
       </c>
@@ -8771,8 +12917,20 @@
       <c r="D348" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB348" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC348" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD348" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE348" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
         <v>1024</v>
       </c>
@@ -8785,8 +12943,20 @@
       <c r="D349" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB349" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC349" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD349" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE349" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
         <v>1024</v>
       </c>
@@ -8799,8 +12969,20 @@
       <c r="D350" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB350" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC350" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD350" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE350" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
         <v>1024</v>
       </c>
@@ -8813,8 +12995,20 @@
       <c r="D351" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB351" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC351" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD351" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE351" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
         <v>1024</v>
       </c>
@@ -8827,8 +13021,20 @@
       <c r="D352" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB352" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC352" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD352" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE352" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A353" s="1">
         <v>1024</v>
       </c>
@@ -8841,8 +13047,20 @@
       <c r="D353" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB353" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC353" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD353" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE353" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
         <v>1024</v>
       </c>
@@ -8855,8 +13073,20 @@
       <c r="D354" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB354" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC354" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD354" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE354" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A355" s="1">
         <v>1024</v>
       </c>
@@ -8869,8 +13099,20 @@
       <c r="D355" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB355" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC355" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD355" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE355" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A356" s="1">
         <v>1024</v>
       </c>
@@ -8883,8 +13125,20 @@
       <c r="D356" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB356" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC356" s="1">
+        <v>512</v>
+      </c>
+      <c r="AD356" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE356" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A357" s="1">
         <v>1024</v>
       </c>
@@ -8897,8 +13151,20 @@
       <c r="D357" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB357" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC357" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD357" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A358" s="1">
         <v>1024</v>
       </c>
@@ -8911,8 +13177,20 @@
       <c r="D358" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB358" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC358" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD358" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A359" s="1">
         <v>1024</v>
       </c>
@@ -8925,8 +13203,20 @@
       <c r="D359" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB359" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC359" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD359" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A360" s="1">
         <v>1024</v>
       </c>
@@ -8939,8 +13229,20 @@
       <c r="D360" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB360" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC360" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD360" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A361" s="1">
         <v>1024</v>
       </c>
@@ -8953,8 +13255,20 @@
       <c r="D361" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB361" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC361" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD361" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A362" s="1">
         <v>1024</v>
       </c>
@@ -8967,8 +13281,20 @@
       <c r="D362" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB362" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC362" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD362" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A363" s="1">
         <v>1024</v>
       </c>
@@ -8981,8 +13307,20 @@
       <c r="D363" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB363" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC363" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD363" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A364" s="1">
         <v>1024</v>
       </c>
@@ -8995,8 +13333,20 @@
       <c r="D364" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB364" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC364" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD364" s="1">
+        <v>128</v>
+      </c>
+      <c r="AE364" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A365" s="1">
         <v>1024</v>
       </c>
@@ -9009,8 +13359,20 @@
       <c r="D365" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB365" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC365" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD365" s="1">
+        <v>256</v>
+      </c>
+      <c r="AE365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A366" s="1">
         <v>1024</v>
       </c>
@@ -9023,8 +13385,20 @@
       <c r="D366" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB366" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC366" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD366" s="1">
+        <v>512</v>
+      </c>
+      <c r="AE366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A367" s="1">
         <v>1024</v>
       </c>
@@ -9037,8 +13411,20 @@
       <c r="D367" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="AB367" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AC367" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AD367" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AE367" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A368" s="1">
         <v>2048</v>
       </c>
